--- a/VerveStacks_FIN/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_FIN/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EF9D5F-03F1-45B0-83D1-FCB46B83DF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6749156-C2BF-4CBF-9CF9-6B4CF63FA950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -399,10 +399,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S3aH4,S1aH3,S3aH3,S2aH4,S3aH2,S1aH4,S2aH2</t>
-  </si>
-  <si>
-    <t>S1aH7,S3aH6,S1aH5,S2aH5,S2aH6,S3aH1,S3aH5,S2aH1,S3aH7,S1aH6,S1aH1,S2aH7</t>
+    <t>S1aH2,S2aH3,S1aH3,S3aH4,S1aH4,S2aH2,S2aH4,S3aH2,S3aH3</t>
+  </si>
+  <si>
+    <t>S1aH7,S3aH6,S1aH1,S2aH7,S2aH1,S3aH7,S1aH6,S2aH6,S3aH1,S3aH5,S1aH5,S2aH5</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -974,7 +974,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S3aH6,S1aH5,S2aH5,S2aH6,S3aH1,S3aH5,S2aH1,S3aH7,S1aH6,S1aH1,S2aH7</v>
+        <v>S1aH7,S3aH6,S1aH1,S2aH7,S2aH1,S3aH7,S1aH6,S2aH6,S3aH1,S3aH5,S1aH5,S2aH5</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S3aH4,S1aH3,S3aH3,S2aH4,S3aH2,S1aH4,S2aH2</v>
+        <v>S1aH2,S2aH3,S1aH3,S3aH4,S1aH4,S2aH2,S2aH4,S3aH2,S3aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1619,7 +1619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3E7B6-7192-4B20-9868-F3F1FCEF87FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7410512C-B1A9-40CB-A304-7928C59DC170}">
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1725,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF3A24C-BD2D-4570-9937-5AC2036169DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A61AB2-5BD8-41B6-AF60-4776FBDE1E28}">
   <dimension ref="B2:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1804,10 +1804,10 @@
         <v>115</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N4">
-        <v>0.59772867329870583</v>
+        <v>0.18498107227748917</v>
       </c>
       <c r="O4" t="s">
         <v>126</v>
@@ -1839,10 +1839,10 @@
         <v>115</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.41729025442380491</v>
+        <v>0.59772867329870583</v>
       </c>
       <c r="O5" t="s">
         <v>126</v>
@@ -1874,10 +1874,10 @@
         <v>115</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>0.18498107227748917</v>
+        <v>0.41729025442380491</v>
       </c>
       <c r="O6" t="s">
         <v>126</v>
@@ -2357,7 +2357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2C3D37-C71C-4C4A-9D6B-3FEABC7487DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7261DA-15BF-498A-A15D-76B1315E146F}">
   <dimension ref="B2:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
